--- a/Output_testing/R1_201907/Country/HKD/MN/TANZANIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TANZANIA_201907_HKD_MN.xlsx
@@ -562,8 +562,10 @@
       <c r="I7" s="9" t="n">
         <v>-46.3031673588787</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>4237.962914047229</v>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="8">

--- a/Output_testing/R1_201907/Country/HKD/MN/TANZANIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TANZANIA_201907_HKD_MN.xlsx
@@ -812,136 +812,483 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>675.602481</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>89.04397422231752</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>627.38037</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>89.58960698568558</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>602.745138</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>88.60038560962788</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>337.089161</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>87.87900843064695</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-8.216548091394726</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>16.291704</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.147236151155619</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>21.464335</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.065096437204587</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>20.845779</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.064220582287107</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>14.883169</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.880036160598303</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>146.6610317947647</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>11.018537</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.452236118410068</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>13.286232</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.897267367802151</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>18.780488</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.760633597573688</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>8.823200999999999</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.300204945077699</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-21.83281267358647</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3.939383</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.519208155933098</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.830001</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.4041227451204716</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.880238</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.2763851607175892</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.810157</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.7326067974474015</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>253.2220599362979</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.891956</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1175592294360468</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2.064215</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.2947688825264918</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.085904</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.5437943322108783</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.779441</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.4638995516110316</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.453759</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3234038643854234</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.850545</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.1214574059332458</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.05189430019706767</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.745785</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.4551254459739125</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>572.1046086799179</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.670874</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.4355961784619612</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.0613327001094616</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.220185</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3181017377831052</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>895.476165223989</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.526029</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2179161875255338</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.320122</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4880405845281309</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.9708059999999999</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.2530887329792329</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-63.16460667229489</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>47.633056</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>6.278006268295819</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>30.427333</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>4.345008124963459</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>31.954062</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>4.697080136370933</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>10.504572</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.738537687209521</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-47.68642829065898</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1320,573 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>2.440915554410807</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>2.368430829637625</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>2.049377703287689</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.738027</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>44.93955303221281</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.96495334412715</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.50162</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>30.54438196979052</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.167768457693843</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>10.37734732541234</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>12.82234424873924</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.3809020988624771</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.08750420411259982</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.026653416681585</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.205509947840362</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>4.664394150309911</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.683095947626534</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.45468946160478</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.4615573847354814</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-71.99645337668095</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.5672160000000001</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>51.63874653938208</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.478021</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>78.98166400993509</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>1.656078</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>80.95742309407045</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>30.47983897031311</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.9385925804256517</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>12.36435572878787</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1918,483 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>675.602481</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>89.26413737582966</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>627.38037</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>89.85207654116049</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>602.745138</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>88.74367435618294</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>337.089161</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>88.25686970193189</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-8.216548091394726</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>16.291704</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.152545239013641</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>21.464335</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>3.074076212051566</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>20.845779</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3.069176185170583</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>14.883169</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.896719500823202</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>146.6610317947647</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>11.018537</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.455826803644704</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>13.286232</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.902825768373364</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>18.780488</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.765098225184193</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>8.823200999999999</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.31009534302693</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-21.83281267358647</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3.939383</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.5204919093362654</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.830001</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.4053066984922731</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.880238</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2768321439104179</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.810157</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.7357568527425057</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>253.2220599362979</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.891956</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.1178498971752525</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.064215</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.2956324632493866</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.085904</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.5461325335783743</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2.453759</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.3242034874397959</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.850545</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.121813238182287</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.05197822612106254</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.745785</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.4570823897615242</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>572.1046086799179</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.539055</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.4029562273558442</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.06148434653795323</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.220185</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.3194695084166523</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>895.476165223989</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.041414</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.2726635867825121</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.526029</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2185546138653184</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.320122</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.4888298669126698</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.9708059999999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2541769613525298</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-63.16460667229489</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>45.814515</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.053253615519226</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>28.431956</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>4.071964009213274</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>30.878142</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>4.546266084309709</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>9.732151999999999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.548077394228039</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-51.46771708594424</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2426,483 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>113.251325</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>50.58812033213631</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>133.923753</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>55.41574203652234</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>285.464336</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>86.85281484294677</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>273.425161</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>84.43651976009649</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>79.05608016102039</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>48.711389</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>21.75884130519004</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>32.375018</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>13.39632145699925</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>10.567386</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.215137948552522</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>23.334246</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.205856682172539</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>144.2997943774159</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>37.14724</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>16.59326323225576</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>27.045052</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>11.19085742016454</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>16.679345</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.074707696539122</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>15.394606</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.754013672201513</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>63.66967541649391</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.994168</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.337461889109306</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.465901</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.6065689606763047</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.88997</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.2707742785276593</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.532401</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.634893742048732</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.3501909372852099</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>8.876003000000001</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.964812842873167</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.290096</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.5338233549828112</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.2346958662581653</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>7.302948</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.262146488823281</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>27.9452</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>11.56332584525931</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>11.182961</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.402427268984293</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>0.709988</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.2192516430169767</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-88.81537367050353</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.06176207006793825</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.94738</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.4231842182884775</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.863142</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.7709416301185221</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.459143</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7481967612631255</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.06003674664059039</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-91.60301683776247</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.856044</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.3823854324141753</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.800161</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.3310952282205365</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.06085020360858441</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-50.72</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3.78291</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.689784258909481</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>14.962632</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>6.191324067056382</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.232834</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.3750909995779278</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-93.84622017068855</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
